--- a/Data/EC/NIT-9005327660.xlsx
+++ b/Data/EC/NIT-9005327660.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8A30C21-94A2-4B11-A9A4-74A8F68B3871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECAC9F3E-1CCF-4FBA-BF40-B11803F3A1B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7EB09D8D-80A3-450C-9DCD-1EFACA73BE83}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E7BFB4F8-2599-4ABE-96FA-91EBFDF92315}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="62">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,43 +65,100 @@
     <t>CC</t>
   </si>
   <si>
+    <t>45750571</t>
+  </si>
+  <si>
+    <t>YACIRA SIMANCAS GOMEZ</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>45561711</t>
+  </si>
+  <si>
+    <t>SANDRA MILENA MARIÑO MELO</t>
+  </si>
+  <si>
+    <t>71277983</t>
+  </si>
+  <si>
+    <t>JULIAN DAVID MOSQUERA MUÑOZ</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>64521001</t>
+  </si>
+  <si>
+    <t>LEIDIS DEL TORO JULIO</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1143355353</t>
+  </si>
+  <si>
+    <t>LEYDIS PAOLA OROZCO FUENTES</t>
+  </si>
+  <si>
+    <t>1143354709</t>
+  </si>
+  <si>
+    <t>JANNETH DEL CARMEN RACERO BANQUEZ</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>1050974334</t>
+  </si>
+  <si>
+    <t>CRISTIAN PUELLO GONZALEZ</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>1143403213</t>
+  </si>
+  <si>
+    <t>MOISES DAVID ANAYA VILLADIEGO</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>1004178908</t>
+  </si>
+  <si>
+    <t>ANDRES DAVID PEREZ GARCIA</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
     <t>22790253</t>
   </si>
   <si>
     <t>LESBIA PEREZ ALTAMIRANDA</t>
   </si>
   <si>
-    <t>2507</t>
-  </si>
-  <si>
-    <t>45748233</t>
-  </si>
-  <si>
-    <t>DEYANIRA AGUILAR ORTEGA</t>
-  </si>
-  <si>
-    <t>64521001</t>
-  </si>
-  <si>
-    <t>LEIDIS DEL TORO JULIO</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1143354709</t>
-  </si>
-  <si>
-    <t>JANNETH DEL CARMEN RACERO BANQUEZ</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>1050966991</t>
-  </si>
-  <si>
-    <t>VANESSA PAOLA MARTINEZ AREVALO</t>
+    <t>2508</t>
   </si>
   <si>
     <t>15680655</t>
@@ -116,54 +173,6 @@
     <t>MARTIN RAFAEL BOHORQUEZ MARRUGO</t>
   </si>
   <si>
-    <t>1143355353</t>
-  </si>
-  <si>
-    <t>LEYDIS PAOLA OROZCO FUENTES</t>
-  </si>
-  <si>
-    <t>1128053149</t>
-  </si>
-  <si>
-    <t>SANDRA MILENA ZARATE RINCON</t>
-  </si>
-  <si>
-    <t>1050962245</t>
-  </si>
-  <si>
-    <t>MILEIDIS HUETO MONTALBAN</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1036945614</t>
-  </si>
-  <si>
-    <t>ANDRES SANCHEZ SIERRA</t>
-  </si>
-  <si>
-    <t>1095913909</t>
-  </si>
-  <si>
-    <t>NELSI FABIOLA PARRA PRIETO</t>
-  </si>
-  <si>
-    <t>45750571</t>
-  </si>
-  <si>
-    <t>YACIRA SIMANCAS GOMEZ</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1047498835</t>
-  </si>
-  <si>
-    <t>KITIAN KARLIN VARGAS GOMEZ</t>
-  </si>
-  <si>
     <t>1047473279</t>
   </si>
   <si>
@@ -174,78 +183,6 @@
   </si>
   <si>
     <t>NORELIS SOFIA ALEMAN ALVAREZ</t>
-  </si>
-  <si>
-    <t>73110355</t>
-  </si>
-  <si>
-    <t>JUAN FELIPE SANTIAGO GOMEZ GONZALEZ</t>
-  </si>
-  <si>
-    <t>30893752</t>
-  </si>
-  <si>
-    <t>KETTY DEL CARMEN MARRUGO BABILONIA</t>
-  </si>
-  <si>
-    <t>45561711</t>
-  </si>
-  <si>
-    <t>SANDRA MILENA MARIÑO MELO</t>
-  </si>
-  <si>
-    <t>71277983</t>
-  </si>
-  <si>
-    <t>JULIAN DAVID MOSQUERA MUÑOZ</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1001936849</t>
-  </si>
-  <si>
-    <t>YUDIS PAOLA CRUZ GUZMAN</t>
-  </si>
-  <si>
-    <t>1050974334</t>
-  </si>
-  <si>
-    <t>CRISTIAN PUELLO GONZALEZ</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>1143403213</t>
-  </si>
-  <si>
-    <t>MOISES DAVID ANAYA VILLADIEGO</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>1004178908</t>
-  </si>
-  <si>
-    <t>ANDRES DAVID PEREZ GARCIA</t>
   </si>
   <si>
     <t>1001974756</t>
@@ -350,7 +287,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -363,9 +302,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -565,23 +502,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -609,10 +546,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -665,7 +602,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F24FE34-E346-AD3B-A3CC-36FE1A4F7C0E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{798A35AA-A306-5A39-F78E-E20803A41DCE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1016,8 +953,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4232350-819F-4EA3-8474-C4DC21623C05}">
-  <dimension ref="B2:J52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EFE4DC4-839E-4670-9C6D-2D1E4A4C2D81}">
+  <dimension ref="B2:J42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1028,7 +965,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -1041,7 +978,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1086,7 +1023,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1118,12 +1055,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>2712994</v>
+        <v>1532929</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1134,17 +1071,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="C13" s="5">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="F13" s="5">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1171,13 +1108,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1194,10 +1131,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>88000</v>
+        <v>15625</v>
       </c>
       <c r="G16" s="18">
-        <v>2200000</v>
+        <v>877803</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1217,10 +1154,10 @@
         <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>260000</v>
+        <v>19413</v>
       </c>
       <c r="G17" s="18">
-        <v>6500000</v>
+        <v>1500000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1237,13 +1174,13 @@
         <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F18" s="18">
-        <v>76000</v>
+        <v>252000</v>
       </c>
       <c r="G18" s="18">
-        <v>1900000</v>
+        <v>12600000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1254,13 +1191,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F19" s="18">
         <v>42400</v>
@@ -1277,19 +1214,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>19</v>
       </c>
       <c r="F20" s="18">
-        <v>46000</v>
+        <v>33125</v>
       </c>
       <c r="G20" s="18">
-        <v>1500000</v>
+        <v>877803</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1300,19 +1237,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F21" s="18">
-        <v>80000</v>
+        <v>46000</v>
       </c>
       <c r="G21" s="18">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1323,19 +1260,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F22" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G22" s="18">
-        <v>1423500</v>
+        <v>2000000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1346,19 +1283,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F23" s="18">
-        <v>128000</v>
+        <v>70000</v>
       </c>
       <c r="G23" s="18">
-        <v>4000000</v>
+        <v>1750000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1369,19 +1306,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="F24" s="18">
-        <v>33125</v>
+        <v>70000</v>
       </c>
       <c r="G24" s="18">
-        <v>828116</v>
+        <v>1750000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1398,13 +1335,13 @@
         <v>29</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F25" s="18">
-        <v>96000</v>
+        <v>70000</v>
       </c>
       <c r="G25" s="18">
-        <v>2400000</v>
+        <v>1750000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1415,19 +1352,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F26" s="18">
-        <v>33125</v>
+        <v>70000</v>
       </c>
       <c r="G26" s="18">
-        <v>870000</v>
+        <v>1750000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1438,19 +1375,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F27" s="18">
-        <v>320000</v>
+        <v>27426</v>
       </c>
       <c r="G27" s="18">
-        <v>8000000</v>
+        <v>1210000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1461,19 +1398,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D28" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E28" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F28" s="18">
-        <v>116000</v>
+        <v>70000</v>
       </c>
       <c r="G28" s="18">
-        <v>2900000</v>
+        <v>1750000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1484,19 +1421,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>39</v>
-      </c>
       <c r="F29" s="18">
-        <v>15625</v>
+        <v>70000</v>
       </c>
       <c r="G29" s="18">
-        <v>877803</v>
+        <v>1750000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1507,19 +1444,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F30" s="18">
-        <v>92000</v>
+        <v>88000</v>
       </c>
       <c r="G30" s="18">
-        <v>2300000</v>
+        <v>2200000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1530,19 +1467,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="F31" s="18">
-        <v>88000</v>
+        <v>76000</v>
       </c>
       <c r="G31" s="18">
-        <v>2200000</v>
+        <v>1900000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1553,19 +1490,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="F32" s="18">
-        <v>76000</v>
+        <v>56940</v>
       </c>
       <c r="G32" s="18">
-        <v>1900000</v>
+        <v>1423500</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1576,19 +1513,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="F33" s="18">
-        <v>56940</v>
+        <v>160000</v>
       </c>
       <c r="G33" s="18">
-        <v>1423500</v>
+        <v>4000000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1599,19 +1536,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="F34" s="18">
-        <v>70000</v>
+        <v>88000</v>
       </c>
       <c r="G34" s="18">
-        <v>1750000</v>
+        <v>2200000</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1622,305 +1559,75 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F35" s="18">
-        <v>19413</v>
+        <v>76000</v>
       </c>
       <c r="G35" s="18">
-        <v>1500000</v>
+        <v>1900000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B36" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="F36" s="18">
-        <v>252000</v>
-      </c>
-      <c r="G36" s="18">
-        <v>12600000</v>
-      </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B37" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" s="18">
-        <v>88000</v>
-      </c>
-      <c r="G37" s="18">
-        <v>2200000</v>
-      </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B38" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E38" s="16" t="s">
+      <c r="B36" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F36" s="24">
+        <v>80000</v>
+      </c>
+      <c r="G36" s="24">
+        <v>2000000</v>
+      </c>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="26"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B41" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" s="32"/>
+      <c r="H41" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B42" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="F38" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G38" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B39" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D39" s="17" t="s">
+      <c r="C42" s="32"/>
+      <c r="H42" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E39" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="F39" s="18">
-        <v>70000</v>
-      </c>
-      <c r="G39" s="18">
-        <v>1750000</v>
-      </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B40" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D40" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="F40" s="18">
-        <v>70000</v>
-      </c>
-      <c r="G40" s="18">
-        <v>1750000</v>
-      </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B41" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="F41" s="18">
-        <v>70000</v>
-      </c>
-      <c r="G41" s="18">
-        <v>1750000</v>
-      </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="20"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B42" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="F42" s="18">
-        <v>70000</v>
-      </c>
-      <c r="G42" s="18">
-        <v>1750000</v>
-      </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="20"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B43" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D43" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="F43" s="18">
-        <v>70000</v>
-      </c>
-      <c r="G43" s="18">
-        <v>1750000</v>
-      </c>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="20"/>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B44" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D44" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="F44" s="18">
-        <v>70000</v>
-      </c>
-      <c r="G44" s="18">
-        <v>1750000</v>
-      </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="20"/>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B45" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D45" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="F45" s="18">
-        <v>27426</v>
-      </c>
-      <c r="G45" s="18">
-        <v>1210000</v>
-      </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="20"/>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B46" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="D46" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="E46" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F46" s="24">
-        <v>80000</v>
-      </c>
-      <c r="G46" s="24">
-        <v>2000000</v>
-      </c>
-      <c r="H46" s="25"/>
-      <c r="I46" s="25"/>
-      <c r="J46" s="26"/>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B51" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="C51" s="32"/>
-      <c r="H51" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B52" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="C52" s="32"/>
-      <c r="H52" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="H41:J41"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
